--- a/Тесты/Тест_разное.xlsx
+++ b/Тесты/Тест_разное.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\unifloc_vba\Тесты\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\unifloc_vba\Тесты\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80BC4720-E362-4A7A-96A3-6A0E423B6018}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D1C959-D061-435B-AFB1-9192181A8204}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21945" windowHeight="8370" tabRatio="483" xr2:uid="{5BC418B1-29F1-4465-BC94-E59D8AF992B4}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12103" tabRatio="483" xr2:uid="{5BC418B1-29F1-4465-BC94-E59D8AF992B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,6 +26,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -224,19 +225,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>36.765634247702934</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37.412930360393204</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36.24921887164421</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28.72264804480907</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.533290675145828</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -386,52 +387,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>4.9999999999997158</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.9999999999997158</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.9999999999997158</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.9999999999997158</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.9999999999997158</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.9999999999997158</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.9999999999997158</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.9999999999997158</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.9999999999997158</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.9999999999997158</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.9999999999997158</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.9999999999997158</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.9999999999997158</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.9999999999997158</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.9999999999997158</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.9999999999997158</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -865,19 +866,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>61.765634247702934</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>62.412930360393204</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>61.24921887164421</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>53.72264804480907</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36.533290675145828</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>25</c:v>
@@ -1013,31 +1014,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>19.562253587043735</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.296218537850489</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.506438949024865</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23.77692646467986</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28.113749786265863</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32.963766094728669</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>38.181761123718474</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43.783590352569114</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>49.707128329641179</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>50</c:v>
@@ -1429,19 +1430,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>36.765634247702934</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37.412930360393204</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36.24921887164421</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28.72264804480907</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.533290675145828</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -1577,31 +1578,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>30.437746412956265</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.703781462149511</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29.493561050975135</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26.22307353532014</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.886250213734137</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17.036233905271331</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.818238876281526</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.2164096474308863</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.29287167035882078</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -4600,11 +4601,11 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="База насосов"/>
-      <sheetName val="Лист1"/>
+      <sheetName val="ESPbase"/>
+      <sheetName val="Info"/>
     </sheetNames>
     <definedNames>
-      <definedName name="ESP_dP_atma"/>
+      <definedName name="ESP_dP_atm"/>
       <definedName name="ESP_IDbyRate"/>
       <definedName name="PVT_Bg_m3m3"/>
       <definedName name="PVT_Decode_string"/>
@@ -4921,13 +4922,13 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="B2:L63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.4">
       <c r="E2">
         <v>25</v>
       </c>
@@ -4935,13 +4936,13 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.4">
       <c r="K3" t="str">
         <f>[1]!PVT_Encode_string()</f>
-        <v>gamma_gas:0.600;gamma_oil:0.860;gamma_wat:1.000;rsb_m3m3:100.000;Rp_m3m3:-1.000;Pb_atma:-1.000;Tres_C:90.000;Bob_m3m3:-1.000;Muob_cP:-1.000;PVTcorr:0;Ksep_fr:0.000;PKsep_atma:-1.000;TKsep_C:-1.000;</v>
+        <v>gamma_gas:0,600;gamma_oil:0,860;gamma_wat:1,000;rsb_m3m3:100,000;Rp_m3m3:-1,000;Pb_atma:-1,000;Tres_C:90,000;Bob_m3m3:-1,000;Muob_cP:-1,000;PVTcorr:0;Ksep_fr:0,000;PKsep_atma:-1,000;TKsep_C:-1,000;</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B4">
         <v>80</v>
       </c>
@@ -4951,163 +4952,163 @@
       </c>
       <c r="K4" t="str">
         <f>[1]!PVT_Decode_string(K3,E2)</f>
-        <v>gamma_gas:0.600;gamma_oil:0.860;gamma_wat:1.000;rsb_m3m3:100.000;Rp_m3m3:-1.000;Pb_atma:-1.000;Tres_C:90.000;Bob_m3m3:-1.000;Muob_cP:-1.000;PVTcorr:0;Ksep_fr:0.000;PKsep_atma:-1.000;TKsep_C:-1.000;</v>
+        <v>gamma_gas:0,600;gamma_oil:0,860;gamma_wat:1,000;rsb_m3m3:100,000;Rp_m3m3:-1,000;Pb_atma:-1,000;Tres_C:90,000;Bob_m3m3:-1,000;Muob_cP:-1,000;PVTcorr:0;Ksep_fr:0,000;PKsep_atma:-1,000;TKsep_C:-1,000;</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.4">
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6">
-        <f t="array" ref="E6:F6">[1]!ESP_dP_atma($E$2,D6,0,200,,$C$4,,,,,,,,,,,,,,45,50)</f>
-        <v>36.765634247702934</v>
+        <f t="array" ref="E6:F6">[1]!ESP_dP_atm($E$2,D6,0,200,,$C$4,,,,,,,,,,,,,,45,50)</f>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>4.9999999999997158</v>
+        <v>5</v>
       </c>
       <c r="H6">
-        <f t="array" ref="H6:I6">[1]!ESP_dP_atma($H$2,D6,0,200,,$C$4,,,,,,,,,,,,,,45,50,0)</f>
-        <v>30.437746412956265</v>
+        <f t="array" ref="H6:I6">[1]!ESP_dP_atm($H$2,D6,0,200,,$C$4,,,,,,,,,,,,,,45,50,0)</f>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>5</v>
       </c>
       <c r="K6">
         <f>$E$2+E6</f>
-        <v>61.765634247702934</v>
+        <v>25</v>
       </c>
       <c r="L6">
         <f>$H$2-H6</f>
-        <v>19.562253587043735</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.4">
       <c r="D7">
         <f>$B$4*0.1</f>
         <v>8</v>
       </c>
       <c r="E7">
-        <f t="array" ref="E7:F7">[1]!ESP_dP_atma($E$2,D7,0,200,,$C$4,,,,,,,,,,,,,,45,50)</f>
-        <v>37.412930360393204</v>
+        <f t="array" ref="E7:F7">[1]!ESP_dP_atm($E$2,D7,0,200,,$C$4,,,,,,,,,,,,,,45,50)</f>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>4.9999999999997158</v>
+        <v>5</v>
       </c>
       <c r="H7">
-        <f t="array" ref="H7:I7">[1]!ESP_dP_atma($H$2,D7,0,200,,$C$4,,,,,,,,,,,,,,45,50,0)</f>
-        <v>30.703781462149511</v>
+        <f t="array" ref="H7:I7">[1]!ESP_dP_atm($H$2,D7,0,200,,$C$4,,,,,,,,,,,,,,45,50,0)</f>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>5</v>
       </c>
       <c r="K7">
         <f t="shared" ref="K7:K21" si="0">$E$2+E7</f>
-        <v>62.412930360393204</v>
+        <v>25</v>
       </c>
       <c r="L7">
         <f t="shared" ref="L7:L21" si="1">$H$2-H7</f>
-        <v>19.296218537850489</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.4">
       <c r="D8">
         <f>D7+$D$7</f>
         <v>16</v>
       </c>
       <c r="E8">
-        <f t="array" ref="E8:F8">[1]!ESP_dP_atma($E$2,D8,0,200,,$C$4,,,,,,,,,,,,,,45,50)</f>
-        <v>36.24921887164421</v>
+        <f t="array" ref="E8:F8">[1]!ESP_dP_atm($E$2,D8,0,200,,$C$4,,,,,,,,,,,,,,45,50)</f>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>4.9999999999997158</v>
+        <v>5</v>
       </c>
       <c r="H8">
-        <f t="array" ref="H8:I8">[1]!ESP_dP_atma($H$2,D8,0,200,,$C$4,,,,,,,,,,,,,,45,50,0)</f>
-        <v>29.493561050975135</v>
+        <f t="array" ref="H8:I8">[1]!ESP_dP_atm($H$2,D8,0,200,,$C$4,,,,,,,,,,,,,,45,50,0)</f>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>5</v>
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>61.24921887164421</v>
+        <v>25</v>
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>20.506438949024865</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.4">
       <c r="D9">
         <f t="shared" ref="D9:D17" si="2">D8+$D$7</f>
         <v>24</v>
       </c>
       <c r="E9">
-        <f t="array" ref="E9:F9">[1]!ESP_dP_atma($E$2,D9,0,200,,$C$4,,,,,,,,,,,,,,45,50)</f>
-        <v>28.72264804480907</v>
+        <f t="array" ref="E9:F9">[1]!ESP_dP_atm($E$2,D9,0,200,,$C$4,,,,,,,,,,,,,,45,50)</f>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>4.9999999999997158</v>
+        <v>5</v>
       </c>
       <c r="H9">
-        <f t="array" ref="H9:I9">[1]!ESP_dP_atma($H$2,D9,0,200,,$C$4,,,,,,,,,,,,,,45,50,0)</f>
-        <v>26.22307353532014</v>
+        <f t="array" ref="H9:I9">[1]!ESP_dP_atm($H$2,D9,0,200,,$C$4,,,,,,,,,,,,,,45,50,0)</f>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>5</v>
       </c>
       <c r="K9">
         <f t="shared" si="0"/>
-        <v>53.72264804480907</v>
+        <v>25</v>
       </c>
       <c r="L9">
         <f t="shared" si="1"/>
-        <v>23.77692646467986</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.4">
       <c r="D10">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="E10">
-        <f t="array" ref="E10:F10">[1]!ESP_dP_atma($E$2,D10,0,200,,$C$4,,,,,,,,,,,,,,45,50)</f>
-        <v>11.533290675145828</v>
+        <f t="array" ref="E10:F10">[1]!ESP_dP_atm($E$2,D10,0,200,,$C$4,,,,,,,,,,,,,,45,50)</f>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>4.9999999999997158</v>
+        <v>5</v>
       </c>
       <c r="H10">
-        <f t="array" ref="H10:I10">[1]!ESP_dP_atma($H$2,D10,0,200,,$C$4,,,,,,,,,,,,,,45,50,0)</f>
-        <v>21.886250213734137</v>
+        <f t="array" ref="H10:I10">[1]!ESP_dP_atm($H$2,D10,0,200,,$C$4,,,,,,,,,,,,,,45,50,0)</f>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>5</v>
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
-        <v>36.533290675145828</v>
+        <v>25</v>
       </c>
       <c r="L10">
         <f t="shared" si="1"/>
-        <v>28.113749786265863</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.4">
       <c r="D11">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="E11">
-        <f t="array" ref="E11:F11">[1]!ESP_dP_atma($E$2,D11,0,200,,$C$4,,,,,,,,,,,,,,45,50)</f>
+        <f t="array" ref="E11:F11">[1]!ESP_dP_atm($E$2,D11,0,200,,$C$4,,,,,,,,,,,,,,45,50)</f>
         <v>0</v>
       </c>
       <c r="F11">
-        <v>4.9999999999997158</v>
+        <v>5</v>
       </c>
       <c r="H11">
-        <f t="array" ref="H11:I11">[1]!ESP_dP_atma($H$2,D11,0,200,,$C$4,,,,,,,,,,,,,,45,50,0)</f>
-        <v>17.036233905271331</v>
+        <f t="array" ref="H11:I11">[1]!ESP_dP_atm($H$2,D11,0,200,,$C$4,,,,,,,,,,,,,,45,50,0)</f>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>5</v>
@@ -5118,24 +5119,24 @@
       </c>
       <c r="L11">
         <f t="shared" si="1"/>
-        <v>32.963766094728669</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.4">
       <c r="D12">
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="E12">
-        <f t="array" ref="E12:F12">[1]!ESP_dP_atma($E$2,D12,0,200,,$C$4,,,,,,,,,,,,,,45,50)</f>
+        <f t="array" ref="E12:F12">[1]!ESP_dP_atm($E$2,D12,0,200,,$C$4,,,,,,,,,,,,,,45,50)</f>
         <v>0</v>
       </c>
       <c r="F12">
-        <v>4.9999999999997158</v>
+        <v>5</v>
       </c>
       <c r="H12">
-        <f t="array" ref="H12:I12">[1]!ESP_dP_atma($H$2,D12,0,200,,$C$4,,,,,,,,,,,,,,45,50,0)</f>
-        <v>11.818238876281526</v>
+        <f t="array" ref="H12:I12">[1]!ESP_dP_atm($H$2,D12,0,200,,$C$4,,,,,,,,,,,,,,45,50,0)</f>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>5</v>
@@ -5146,24 +5147,24 @@
       </c>
       <c r="L12">
         <f t="shared" si="1"/>
-        <v>38.181761123718474</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.4">
       <c r="D13">
         <f t="shared" si="2"/>
         <v>56</v>
       </c>
       <c r="E13">
-        <f t="array" ref="E13:F13">[1]!ESP_dP_atma($E$2,D13,0,200,,$C$4,,,,,,,,,,,,,,45,50)</f>
+        <f t="array" ref="E13:F13">[1]!ESP_dP_atm($E$2,D13,0,200,,$C$4,,,,,,,,,,,,,,45,50)</f>
         <v>0</v>
       </c>
       <c r="F13">
-        <v>4.9999999999997158</v>
+        <v>5</v>
       </c>
       <c r="H13">
-        <f t="array" ref="H13:I13">[1]!ESP_dP_atma($H$2,D13,0,200,,$C$4,,,,,,,,,,,,,,45,50,0)</f>
-        <v>6.2164096474308863</v>
+        <f t="array" ref="H13:I13">[1]!ESP_dP_atm($H$2,D13,0,200,,$C$4,,,,,,,,,,,,,,45,50,0)</f>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>5</v>
@@ -5174,24 +5175,24 @@
       </c>
       <c r="L13">
         <f t="shared" si="1"/>
-        <v>43.783590352569114</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.4">
       <c r="D14">
         <f t="shared" si="2"/>
         <v>64</v>
       </c>
       <c r="E14">
-        <f t="array" ref="E14:F14">[1]!ESP_dP_atma($E$2,D14,0,200,,$C$4,,,,,,,,,,,,,,45,50)</f>
+        <f t="array" ref="E14:F14">[1]!ESP_dP_atm($E$2,D14,0,200,,$C$4,,,,,,,,,,,,,,45,50)</f>
         <v>0</v>
       </c>
       <c r="F14">
-        <v>4.9999999999997158</v>
+        <v>5</v>
       </c>
       <c r="H14">
-        <f t="array" ref="H14:I14">[1]!ESP_dP_atma($H$2,D14,0,200,,$C$4,,,,,,,,,,,,,,45,50,0)</f>
-        <v>0.29287167035882078</v>
+        <f t="array" ref="H14:I14">[1]!ESP_dP_atm($H$2,D14,0,200,,$C$4,,,,,,,,,,,,,,45,50,0)</f>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>5</v>
@@ -5202,23 +5203,23 @@
       </c>
       <c r="L14">
         <f t="shared" si="1"/>
-        <v>49.707128329641179</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.4">
       <c r="D15">
         <f t="shared" si="2"/>
         <v>72</v>
       </c>
       <c r="E15">
-        <f t="array" ref="E15:F15">[1]!ESP_dP_atma($E$2,D15,0,200,,$C$4,,,,,,,,,,,,,,45,50)</f>
+        <f t="array" ref="E15:F15">[1]!ESP_dP_atm($E$2,D15,0,200,,$C$4,,,,,,,,,,,,,,45,50)</f>
         <v>0</v>
       </c>
       <c r="F15">
-        <v>4.9999999999997158</v>
+        <v>5</v>
       </c>
       <c r="H15">
-        <f t="array" ref="H15:I15">[1]!ESP_dP_atma($H$2,D15,0,200,,$C$4,,,,,,,,,,,,,,45,50,0)</f>
+        <f t="array" ref="H15:I15">[1]!ESP_dP_atm($H$2,D15,0,200,,$C$4,,,,,,,,,,,,,,45,50,0)</f>
         <v>0</v>
       </c>
       <c r="I15">
@@ -5233,20 +5234,20 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.4">
       <c r="D16">
         <f>D15+$D$7</f>
         <v>80</v>
       </c>
       <c r="E16">
-        <f t="array" ref="E16:F16">[1]!ESP_dP_atma($E$2,D16,0,200,,$C$4,,,,,,,,,,,,,,45,50)</f>
+        <f t="array" ref="E16:F16">[1]!ESP_dP_atm($E$2,D16,0,200,,$C$4,,,,,,,,,,,,,,45,50)</f>
         <v>0</v>
       </c>
       <c r="F16">
-        <v>4.9999999999997158</v>
+        <v>5</v>
       </c>
       <c r="H16">
-        <f t="array" ref="H16:I16">[1]!ESP_dP_atma($H$2,D16,0,200,,$C$4,,,,,,,,,,,,,,45,50,0)</f>
+        <f t="array" ref="H16:I16">[1]!ESP_dP_atm($H$2,D16,0,200,,$C$4,,,,,,,,,,,,,,45,50,0)</f>
         <v>0</v>
       </c>
       <c r="I16">
@@ -5261,20 +5262,20 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:12" x14ac:dyDescent="0.4">
       <c r="D17">
         <f t="shared" si="2"/>
         <v>88</v>
       </c>
       <c r="E17">
-        <f t="array" ref="E17:F17">[1]!ESP_dP_atma($E$2,D17,0,200,,$C$4,,,,,,,,,,,,,,45,50)</f>
+        <f t="array" ref="E17:F17">[1]!ESP_dP_atm($E$2,D17,0,200,,$C$4,,,,,,,,,,,,,,45,50)</f>
         <v>0</v>
       </c>
       <c r="F17">
-        <v>4.9999999999997158</v>
+        <v>5</v>
       </c>
       <c r="H17">
-        <f t="array" ref="H17:I17">[1]!ESP_dP_atma($H$2,D17,0,200,,$C$4,,,,,,,,,,,,,,45,50,0)</f>
+        <f t="array" ref="H17:I17">[1]!ESP_dP_atm($H$2,D17,0,200,,$C$4,,,,,,,,,,,,,,45,50,0)</f>
         <v>0</v>
       </c>
       <c r="I17">
@@ -5289,20 +5290,20 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:12" x14ac:dyDescent="0.4">
       <c r="D18">
         <f t="shared" ref="D18:D21" si="3">D17+$D$7</f>
         <v>96</v>
       </c>
       <c r="E18">
-        <f t="array" ref="E18:F18">[1]!ESP_dP_atma($E$2,D18,0,200,,$C$4,,,,,,,,,,,,,,45,50)</f>
+        <f t="array" ref="E18:F18">[1]!ESP_dP_atm($E$2,D18,0,200,,$C$4,,,,,,,,,,,,,,45,50)</f>
         <v>0</v>
       </c>
       <c r="F18">
-        <v>4.9999999999997158</v>
+        <v>5</v>
       </c>
       <c r="H18">
-        <f t="array" ref="H18:I18">[1]!ESP_dP_atma($H$2,D18,0,200,,$C$4,,,,,,,,,,,,,,45,50,0)</f>
+        <f t="array" ref="H18:I18">[1]!ESP_dP_atm($H$2,D18,0,200,,$C$4,,,,,,,,,,,,,,45,50,0)</f>
         <v>0</v>
       </c>
       <c r="I18">
@@ -5317,20 +5318,20 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:12" x14ac:dyDescent="0.4">
       <c r="D19">
         <f t="shared" si="3"/>
         <v>104</v>
       </c>
       <c r="E19">
-        <f t="array" ref="E19:F19">[1]!ESP_dP_atma($E$2,D19,0,200,,$C$4,,,,,,,,,,,,,,45,50)</f>
+        <f t="array" ref="E19:F19">[1]!ESP_dP_atm($E$2,D19,0,200,,$C$4,,,,,,,,,,,,,,45,50)</f>
         <v>0</v>
       </c>
       <c r="F19">
-        <v>4.9999999999997158</v>
+        <v>5</v>
       </c>
       <c r="H19">
-        <f t="array" ref="H19:I19">[1]!ESP_dP_atma($H$2,D19,0,200,,$C$4,,,,,,,,,,,,,,45,50,0)</f>
+        <f t="array" ref="H19:I19">[1]!ESP_dP_atm($H$2,D19,0,200,,$C$4,,,,,,,,,,,,,,45,50,0)</f>
         <v>0</v>
       </c>
       <c r="I19">
@@ -5345,20 +5346,20 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:12" x14ac:dyDescent="0.4">
       <c r="D20">
         <f t="shared" si="3"/>
         <v>112</v>
       </c>
       <c r="E20">
-        <f t="array" ref="E20:F20">[1]!ESP_dP_atma($E$2,D20,0,200,,$C$4,,,,,,,,,,,,,,45,50)</f>
+        <f t="array" ref="E20:F20">[1]!ESP_dP_atm($E$2,D20,0,200,,$C$4,,,,,,,,,,,,,,45,50)</f>
         <v>0</v>
       </c>
       <c r="F20">
-        <v>4.9999999999997158</v>
+        <v>5</v>
       </c>
       <c r="H20">
-        <f t="array" ref="H20:I20">[1]!ESP_dP_atma($H$2,D20,0,200,,$C$4,,,,,,,,,,,,,,45,50,0)</f>
+        <f t="array" ref="H20:I20">[1]!ESP_dP_atm($H$2,D20,0,200,,$C$4,,,,,,,,,,,,,,45,50,0)</f>
         <v>0</v>
       </c>
       <c r="I20">
@@ -5373,20 +5374,20 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:12" x14ac:dyDescent="0.4">
       <c r="D21">
         <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="E21">
-        <f t="array" ref="E21:F21">[1]!ESP_dP_atma($E$2,D21,0,200,,$C$4,,,,,,,,,,,,,,45,50)</f>
+        <f t="array" ref="E21:F21">[1]!ESP_dP_atm($E$2,D21,0,200,,$C$4,,,,,,,,,,,,,,45,50)</f>
         <v>0</v>
       </c>
       <c r="F21">
-        <v>4.9999999999997158</v>
+        <v>5</v>
       </c>
       <c r="H21">
-        <f t="array" ref="H21:I21">[1]!ESP_dP_atma($H$2,D21,0,200,,$C$4,,,,,,,,,,,,,,45,50,0)</f>
+        <f t="array" ref="H21:I21">[1]!ESP_dP_atm($H$2,D21,0,200,,$C$4,,,,,,,,,,,,,,45,50,0)</f>
         <v>0</v>
       </c>
       <c r="I21">
@@ -5401,13 +5402,13 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:12" x14ac:dyDescent="0.4">
       <c r="H28">
         <f>[1]!PVT_Bg_m3m3(23,32,1,,,,,,,,,,,,,K3)</f>
         <v>4.4104151243123474E-2</v>
       </c>
     </row>
-    <row r="43" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:10" x14ac:dyDescent="0.4">
       <c r="E43">
         <v>1</v>
       </c>
@@ -5427,7 +5428,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:10" x14ac:dyDescent="0.4">
       <c r="E44">
         <v>300</v>
       </c>
@@ -5447,7 +5448,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="45" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:10" x14ac:dyDescent="0.4">
       <c r="E45">
         <f>[1]!unf_Calc_Bw_m3m3(E43,E44)</f>
         <v>1.004114380600766</v>
@@ -5473,7 +5474,7 @@
         <v>1.0035623842179309</v>
       </c>
     </row>
-    <row r="48" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:10" x14ac:dyDescent="0.4">
       <c r="F48">
         <v>20000</v>
       </c>
@@ -5490,7 +5491,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="49" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:10" x14ac:dyDescent="0.4">
       <c r="F49">
         <f>[1]!unf_Calc_BwSC_d(F48)</f>
         <v>1.0131958981257601</v>
@@ -5512,7 +5513,7 @@
         <v>1.0421194732658401</v>
       </c>
     </row>
-    <row r="51" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:10" x14ac:dyDescent="0.4">
       <c r="E51">
         <v>10000</v>
       </c>
@@ -5525,7 +5526,7 @@
         <v>9999.9999999971587</v>
       </c>
     </row>
-    <row r="52" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:10" x14ac:dyDescent="0.4">
       <c r="E52">
         <f>E51*1.3</f>
         <v>13000</v>
@@ -5539,7 +5540,7 @@
         <v>12999.999999996988</v>
       </c>
     </row>
-    <row r="53" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:10" x14ac:dyDescent="0.4">
       <c r="E53">
         <f t="shared" ref="E53:E63" si="4">E52*1.3</f>
         <v>16900</v>
@@ -5553,7 +5554,7 @@
         <v>16899.999999997133</v>
       </c>
     </row>
-    <row r="54" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="5:10" x14ac:dyDescent="0.4">
       <c r="E54">
         <f t="shared" si="4"/>
         <v>21970</v>
@@ -5567,7 +5568,7 @@
         <v>21969.9999999969</v>
       </c>
     </row>
-    <row r="55" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:10" x14ac:dyDescent="0.4">
       <c r="E55">
         <f t="shared" si="4"/>
         <v>28561</v>
@@ -5581,7 +5582,7 @@
         <v>28560.999999996853</v>
       </c>
     </row>
-    <row r="56" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="5:10" x14ac:dyDescent="0.4">
       <c r="E56">
         <f t="shared" si="4"/>
         <v>37129.300000000003</v>
@@ -5595,7 +5596,7 @@
         <v>37129.299999997158</v>
       </c>
     </row>
-    <row r="57" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="5:10" x14ac:dyDescent="0.4">
       <c r="E57">
         <f t="shared" si="4"/>
         <v>48268.090000000004</v>
@@ -5609,7 +5610,7 @@
         <v>48268.089999996846</v>
       </c>
     </row>
-    <row r="58" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="5:10" x14ac:dyDescent="0.4">
       <c r="E58">
         <f t="shared" si="4"/>
         <v>62748.517000000007</v>
@@ -5623,7 +5624,7 @@
         <v>62748.516999996864</v>
       </c>
     </row>
-    <row r="59" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="5:10" x14ac:dyDescent="0.4">
       <c r="E59">
         <f t="shared" si="4"/>
         <v>81573.072100000005</v>
@@ -5637,7 +5638,7 @@
         <v>81573.072099997153</v>
       </c>
     </row>
-    <row r="60" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="5:10" x14ac:dyDescent="0.4">
       <c r="E60">
         <f t="shared" si="4"/>
         <v>106044.99373000002</v>
@@ -5651,7 +5652,7 @@
         <v>106044.99372999725</v>
       </c>
     </row>
-    <row r="61" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="5:10" x14ac:dyDescent="0.4">
       <c r="E61">
         <f t="shared" si="4"/>
         <v>137858.49184900001</v>
@@ -5665,7 +5666,7 @@
         <v>137858.4918489969</v>
       </c>
     </row>
-    <row r="62" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="5:10" x14ac:dyDescent="0.4">
       <c r="E62">
         <f t="shared" si="4"/>
         <v>179216.03940370004</v>
@@ -5679,7 +5680,7 @@
         <v>179216.03940369692</v>
       </c>
     </row>
-    <row r="63" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="5:10" x14ac:dyDescent="0.4">
       <c r="E63">
         <f t="shared" si="4"/>
         <v>232980.85122481006</v>
